--- a/biology/Botanique/David_Murray_Gates/David_Murray_Gates.xlsx
+++ b/biology/Botanique/David_Murray_Gates/David_Murray_Gates.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">David Murray Gates est un physicien et un botaniste, né le 27 mai 1921 à Manhattan dans le Kansas, et mort le 4 mars 2016[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">David Murray Gates est un physicien et un botaniste, né le 27 mai 1921 à Manhattan dans le Kansas, et mort le 4 mars 2016.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de Frank Caleb Gates et de Margaret née Thompson. Il obtient son Bachelor of Sciences à l’université du Michigan en 1942, son Master of Sciences en 1944, son doctorat en 1948. Il se marie avec Marian Francis Penley le 4 juin 1944.
 Il travaille d’abord pour le service de recherche de la marine britannique de 1955 à 1957, puis devient chef du service de recherche sur la haute atmosphère de 1957 à 1961, et du service de recherche en physique atmosphérique de 1962 à 1965. Il devient vice-professeur à la station de recherche de l’université du Michigan en 1964, puis professeur d’histoire naturelle à l’université du Colorado en 1965. Il devient alors professeur de botanique à l’université Washington de Saint Louis et y dirige également le Jardin botanique.
